--- a/data.xlsx
+++ b/data.xlsx
@@ -490,22 +490,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>975.00</t>
+          <t>1,009.80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,022.00</t>
+          <t>1,028.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>961.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>990.00</t>
+          <t>1,010.00</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -520,22 +520,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>837.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>858.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>835.00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>841.80</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>833.00</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>836.00</t>
+          <t>847.00</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -545,57 +545,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MKLB</t>
+          <t>IHL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,105.00</t>
+          <t>384.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,193.80</t>
+          <t>404.80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1,105.00</t>
+          <t>384.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,192.00</t>
+          <t>399.00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>478.00</t>
+          <t>218.70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>482.30</t>
+          <t>230.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>475.10</t>
+          <t>218.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>479.00</t>
+          <t>224.00</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -605,147 +605,147 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBL</t>
+          <t>MKLB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>190.10</t>
+          <t>1,215.80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>190.70</t>
+          <t>1,311.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>188.60</t>
+          <t>1,215.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>189.50</t>
+          <t>1,252.00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HRL</t>
+          <t>NWCL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>559.40</t>
+          <t>815.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>571.90</t>
+          <t>849.90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>559.40</t>
+          <t>810.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>568.10</t>
+          <t>836.10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IHL</t>
+          <t>SONA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>411.00</t>
+          <t>440.30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>411.00</t>
+          <t>446.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>391.00</t>
+          <t>437.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>391.00</t>
+          <t>441.00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ILI</t>
+          <t>SPL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>428.00</t>
+          <t>703.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>437.00</t>
+          <t>722.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>428.00</t>
+          <t>680.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>433.80</t>
+          <t>720.00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>222.60</t>
+          <t>475.20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>480.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>222.60</t>
+          <t>475.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>223.00</t>
+          <t>478.10</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -755,211 +755,211 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NFS</t>
+          <t>HBL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>600.20</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>619.80</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>600.20</t>
+          <t>185.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>601.10</t>
+          <t>187.50</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NICL</t>
+          <t>HRL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>835.10</t>
+          <t>568.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>840.00</t>
+          <t>572.90</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>825.00</t>
+          <t>561.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>830.00</t>
+          <t>561.80</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NWCL</t>
+          <t>ILI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>816.00</t>
+          <t>433.80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>830.00</t>
+          <t>439.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>805.00</t>
+          <t>431.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>817.00</t>
+          <t>433.00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PHCL</t>
+          <t>NFS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>313.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>313.00</t>
+          <t>610.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>302.00</t>
+          <t>583.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>305.60</t>
+          <t>583.20</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RSDC</t>
+          <t>PHCL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>688.20</t>
+          <t>301.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>699.00</t>
+          <t>309.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>685.00</t>
+          <t>297.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>690.00</t>
+          <t>300.90</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SONA</t>
+          <t>RSDC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>443.00</t>
+          <t>697.80</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>448.00</t>
+          <t>702.50</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>440.00</t>
+          <t>680.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440.20</t>
+          <t>688.00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SPL</t>
+          <t>NICL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>683.50</t>
+          <t>830.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>702.90</t>
+          <t>835.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>680.20</t>
+          <t>824.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>690.00</t>
+          <t>830.00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1106,6 +1106,25 @@
         <v>154975.2</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>155435</v>
+      </c>
+      <c r="C7" t="n">
+        <v>159223</v>
+      </c>
+      <c r="D7" t="n">
+        <v>153787</v>
+      </c>
+      <c r="E7" t="n">
+        <v>156200.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -973,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1125,6 +1125,25 @@
         <v>156200.4</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>155435</v>
+      </c>
+      <c r="C8" t="n">
+        <v>159223</v>
+      </c>
+      <c r="D8" t="n">
+        <v>153787</v>
+      </c>
+      <c r="E8" t="n">
+        <v>156200.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshacharya/Desktop/hackathon/sake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52AFBE0-C368-4740-9EDC-FEEB6EBC89C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C263507-E569-5C4E-8AEA-1B3787427367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>title</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>HRL</t>
+  </si>
+  <si>
+    <t>568.00</t>
+  </si>
+  <si>
+    <t>572.90</t>
+  </si>
+  <si>
+    <t>561.10</t>
+  </si>
+  <si>
+    <t>561.80</t>
   </si>
   <si>
     <t>date</t>
@@ -54,16 +66,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -80,7 +95,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -105,23 +127,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,31 +453,33 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -461,17 +487,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>5618</v>
-      </c>
-      <c r="C2">
-        <v>5618</v>
-      </c>
-      <c r="D2">
-        <v>5618</v>
-      </c>
-      <c r="E2">
-        <v>5618</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -490,36 +516,36 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5618</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshacharya/Desktop/hackathon/sake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C263507-E569-5C4E-8AEA-1B3787427367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9326B-B909-874E-AF37-4BFE44E194A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>title</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>HRL</t>
-  </si>
-  <si>
-    <t>568.00</t>
-  </si>
-  <si>
-    <t>572.90</t>
-  </si>
-  <si>
-    <t>561.10</t>
-  </si>
-  <si>
-    <t>561.80</t>
   </si>
   <si>
     <t>date</t>
@@ -487,17 +475,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>5618</v>
+      </c>
+      <c r="C2">
+        <v>5618</v>
+      </c>
+      <c r="D2">
+        <v>5618</v>
+      </c>
+      <c r="E2">
+        <v>5618</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -516,7 +504,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -528,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -545,7 +533,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>5618</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,83 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshacharya/Desktop/hackathon/sake/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9326B-B909-874E-AF37-4BFE44E194A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>HRL</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>2024-06-08</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,36 +81,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,9 +457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -445,49 +468,71 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="5" min="2" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>5618</v>
-      </c>
-      <c r="C2">
-        <v>5618</v>
-      </c>
-      <c r="D2">
-        <v>5618</v>
-      </c>
-      <c r="E2">
-        <v>5618</v>
-      </c>
-      <c r="F2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>574.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>565.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>572.70</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -497,55 +542,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="2" min="3" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5618</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5618</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5618</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5618</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5740</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5650</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5727</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,46 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshacharya/Desktop/hackathon/sake/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AF5EB-198F-1541-8272-072B90F4BEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>574.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>572.70</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,95 +137,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,10 +454,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -468,71 +464,49 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="5" min="2" max="6"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HRL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>570.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>574.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>565.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>572.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
     </row>
@@ -542,87 +516,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="2" min="3" max="5"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-06-08</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>5618</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5618</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5618</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5618</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-06-10</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>5700</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5740</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5650</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2DC1-F98E-4A46-9CFB-F8FA135A07D0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,102 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshacharya/Desktop/hackathon/sake/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AF5EB-198F-1541-8272-072B90F4BEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>HRL</t>
-  </si>
-  <si>
-    <t>570.00</t>
-  </si>
-  <si>
-    <t>574.00</t>
-  </si>
-  <si>
-    <t>565.00</t>
-  </si>
-  <si>
-    <t>572.70</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>2024-06-08</t>
-  </si>
-  <si>
-    <t>2024-06-10</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,36 +82,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,9 +458,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -464,50 +469,74 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="5" min="2" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -516,72 +545,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col width="12.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="2" min="3" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5618</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5618</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5618</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5618</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5700</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5740</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>5650</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>5727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5487</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5520</v>
       </c>
     </row>
   </sheetData>
@@ -590,22 +653,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2DC1-F98E-4A46-9CFB-F8FA135A07D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>
